--- a/dataset/65.xlsx
+++ b/dataset/65.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python project\wqd7001\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C1CABC-E92F-4BE2-A55D-189961184713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BD3867-6F4D-4905-B8F9-74F95B1C37D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="2242" windowWidth="18000" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Development relevance</t>
   </si>
   <si>
-    <t>1984 [YR1984]</t>
-  </si>
-  <si>
     <t>2013 [YR2013]</t>
   </si>
   <si>
-    <t>1975 [YR1975]</t>
-  </si>
-  <si>
     <t>Aggregation method</t>
   </si>
   <si>
@@ -44,21 +38,12 @@
     <t>https://datacatalog.worldbank.org/public-licenses#cc-by</t>
   </si>
   <si>
-    <t>1992 [YR1992]</t>
-  </si>
-  <si>
-    <t>1983 [YR1983]</t>
-  </si>
-  <si>
     <t>2012 [YR2012]</t>
   </si>
   <si>
     <t>SP.POP.65UP.TO.ZS</t>
   </si>
   <si>
-    <t>1974 [YR1974]</t>
-  </si>
-  <si>
     <t>2018 [YR2018]</t>
   </si>
   <si>
@@ -71,82 +56,40 @@
     <t>United Nations Population Division. World Population Prospects: 2022 Revision.</t>
   </si>
   <si>
-    <t>1965 [YR1965]</t>
-  </si>
-  <si>
-    <t>1997 [YR1997]</t>
-  </si>
-  <si>
     <t>Population ages 65 and above as a percentage of the total population. Population is based on the de facto definition of population, which counts all residents regardless of legal status or citizenship.</t>
   </si>
   <si>
     <t>Weighted average</t>
   </si>
   <si>
-    <t>1982 [YR1982]</t>
-  </si>
-  <si>
     <t>Annual</t>
   </si>
   <si>
-    <t>1988 [YR1988]</t>
-  </si>
-  <si>
     <t>Health: Population: Structure</t>
   </si>
   <si>
-    <t>1973 [YR1973]</t>
-  </si>
-  <si>
     <t>2017 [YR2017]</t>
   </si>
   <si>
     <t>Population ages 65 and above (% of total population)</t>
   </si>
   <si>
-    <t>1964 [YR1964]</t>
-  </si>
-  <si>
     <t>2008 [YR2008]</t>
-  </si>
-  <si>
-    <t>1996 [YR1996]</t>
   </si>
   <si>
     <t>Patterns of development in a country are partly determined by the age composition of its population. Different age groups have different impacts on both the environment and on infrastructure needs.  Therefore the age structure of a population is useful for analyzing resource use and formulating future policy and planning goals  with regards infrastructure and development.
 This indicator is used for calculating age dependency ratio (percent of working-age population). The age dependency ratio is the ratio of the sum of the population aged 0-14 and the population aged 65 and above to the population aged 15-64. In many developing countries, the once rapidly growing population group of the under-15 population is shrinking. As a result, high fertility rates, together with declining mortality rates, are now reflected in the larger share of the 65 and older population.</t>
   </si>
   <si>
-    <t>1987 [YR1987]</t>
-  </si>
-  <si>
     <t>2016 [YR2016]</t>
   </si>
   <si>
-    <t>1978 [YR1978]</t>
-  </si>
-  <si>
-    <t>1963 [YR1963]</t>
-  </si>
-  <si>
     <t>2007 [YR2007]</t>
   </si>
   <si>
-    <t>1995 [YR1995]</t>
-  </si>
-  <si>
-    <t>1969 [YR1969]</t>
-  </si>
-  <si>
     <t>License Type</t>
   </si>
   <si>
-    <t>1986 [YR1986]</t>
-  </si>
-  <si>
-    <t>1977 [YR1977]</t>
-  </si>
-  <si>
     <t>2021 [YR2021]</t>
   </si>
   <si>
@@ -156,30 +99,15 @@
     <t>CC BY-4.0</t>
   </si>
   <si>
-    <t>1968 [YR1968]</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
-    <t>1985 [YR1985]</t>
-  </si>
-  <si>
-    <t>1991 [YR1991]</t>
-  </si>
-  <si>
-    <t>1976 [YR1976]</t>
-  </si>
-  <si>
     <t>2020 [YR2020]</t>
   </si>
   <si>
     <t>Long definition</t>
   </si>
   <si>
-    <t>1967 [YR1967]</t>
-  </si>
-  <si>
     <t>Periodicity</t>
   </si>
   <si>
@@ -189,42 +117,18 @@
     <t>Age structure in the World Bank's population estimates is based on the age structure in United Nations Population Division's World Population Prospects. For more information, see the original source. Total population is based on the de facto population including all residents regardless of legal status or citizenship. The values shown are midyear estimates. For more information see metadata for total population (SP.POP.TOTL).</t>
   </si>
   <si>
-    <t>1999 [YR1999]</t>
-  </si>
-  <si>
     <t>2002 [YR2002]</t>
   </si>
   <si>
-    <t>1990 [YR1990]</t>
-  </si>
-  <si>
     <t>2019 [YR2019]</t>
   </si>
   <si>
-    <t>1981 [YR1981]</t>
-  </si>
-  <si>
-    <t>1966 [YR1966]</t>
-  </si>
-  <si>
     <t>2010 [YR2010]</t>
   </si>
   <si>
-    <t>1998 [YR1998]</t>
-  </si>
-  <si>
-    <t>1972 [YR1972]</t>
-  </si>
-  <si>
     <t>2001 [YR2001]</t>
   </si>
   <si>
-    <t>1989 [YR1989]</t>
-  </si>
-  <si>
-    <t>1980 [YR1980]</t>
-  </si>
-  <si>
     <t>2009 [YR2009]</t>
   </si>
   <si>
@@ -234,9 +138,6 @@
     <t>2015 [YR2015]</t>
   </si>
   <si>
-    <t>1971 [YR1971]</t>
-  </si>
-  <si>
     <t>License URL</t>
   </si>
   <si>
@@ -246,34 +147,16 @@
     <t>Source</t>
   </si>
   <si>
-    <t>1962 [YR1962]</t>
-  </si>
-  <si>
-    <t>1994 [YR1994]</t>
-  </si>
-  <si>
-    <t>1979 [YR1979]</t>
-  </si>
-  <si>
     <t>2023 [YR2023]</t>
   </si>
   <si>
     <t>Indicator Name</t>
   </si>
   <si>
-    <t>1970 [YR1970]</t>
-  </si>
-  <si>
     <t>2014 [YR2014]</t>
   </si>
   <si>
     <t>2005 [YR2005]</t>
-  </si>
-  <si>
-    <t>1961 [YR1961]</t>
-  </si>
-  <si>
-    <t>1993 [YR1993]</t>
   </si>
   <si>
     <t>2022 [YR2022]</t>
@@ -623,393 +506,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" t="s">
-        <v>48</v>
-      </c>
       <c r="Q1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="S1" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="T1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="U1" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="W1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="X1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BI1" t="s">
         <v>41</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>77</v>
-      </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2.5386063526367701</v>
+        <v>4.1000102418158102</v>
       </c>
       <c r="B2">
-        <v>2.5065657819148899</v>
+        <v>4.1853703277642396</v>
       </c>
       <c r="C2">
-        <v>2.4972173006823</v>
+        <v>4.2884906644708103</v>
       </c>
       <c r="D2">
-        <v>2.4941984002806699</v>
+        <v>4.3970649827300896</v>
       </c>
       <c r="E2">
-        <v>2.4940281702287201</v>
+        <v>4.4958982162847096</v>
       </c>
       <c r="F2">
-        <v>2.49384906095298</v>
+        <v>4.5857362977026002</v>
       </c>
       <c r="G2">
-        <v>2.4898545055846899</v>
+        <v>4.67518462215667</v>
       </c>
       <c r="H2">
-        <v>2.4913687667671098</v>
+        <v>4.7689879638182404</v>
       </c>
       <c r="I2">
-        <v>2.5140274729359402</v>
+        <v>4.8730555961564299</v>
       </c>
       <c r="J2">
-        <v>2.5607703404489701</v>
+        <v>4.9927289039693701</v>
       </c>
       <c r="K2">
-        <v>2.63117744827154</v>
+        <v>5.1121448278765502</v>
       </c>
       <c r="L2">
-        <v>2.7254479166502699</v>
+        <v>5.2322369830208801</v>
       </c>
       <c r="M2">
-        <v>2.8284914013478102</v>
+        <v>5.3700341954743003</v>
       </c>
       <c r="N2">
-        <v>2.9226072759099599</v>
+        <v>5.5234465990864496</v>
       </c>
       <c r="O2">
-        <v>3.0024452685143102</v>
+        <v>5.6923198089056903</v>
       </c>
       <c r="P2">
-        <v>3.0686988219768998</v>
+        <v>5.87638270604472</v>
       </c>
       <c r="Q2">
-        <v>3.11976746560366</v>
+        <v>6.0747862316613297</v>
       </c>
       <c r="R2">
-        <v>3.1614350633758601</v>
+        <v>6.2887421821360796</v>
       </c>
       <c r="S2">
-        <v>3.2057799098493902</v>
+        <v>6.5189166367521603</v>
       </c>
       <c r="T2">
-        <v>3.25574345949647</v>
+        <v>6.7609123327097196</v>
       </c>
       <c r="U2">
-        <v>3.3123108333471198</v>
+        <v>7.0117198518686399</v>
       </c>
       <c r="V2">
-        <v>3.37560188171441</v>
+        <v>7.2504889851330399</v>
       </c>
       <c r="W2">
-        <v>3.4379818401660902</v>
+        <v>7.5025233717683202</v>
       </c>
       <c r="X2">
-        <v>3.4931577084570602</v>
-      </c>
-      <c r="Y2">
-        <v>3.5407447709462501</v>
-      </c>
-      <c r="Z2">
-        <v>3.5801003166066101</v>
-      </c>
-      <c r="AA2">
-        <v>3.6106859664033801</v>
-      </c>
-      <c r="AB2">
-        <v>3.6371041844482201</v>
-      </c>
-      <c r="AC2">
-        <v>3.6664939791191502</v>
-      </c>
-      <c r="AD2">
-        <v>3.70012264333596</v>
-      </c>
-      <c r="AE2">
-        <v>3.7381286362462398</v>
-      </c>
-      <c r="AF2">
-        <v>3.78038289371215</v>
-      </c>
-      <c r="AG2">
-        <v>3.82397404482932</v>
-      </c>
-      <c r="AH2">
-        <v>3.8659655006255398</v>
-      </c>
-      <c r="AI2">
-        <v>3.9074806395109301</v>
-      </c>
-      <c r="AJ2">
-        <v>3.9453308889163399</v>
-      </c>
-      <c r="AK2">
-        <v>3.97358909538969</v>
-      </c>
-      <c r="AL2">
-        <v>3.9997974374043501</v>
-      </c>
-      <c r="AM2">
-        <v>4.03834079515154</v>
-      </c>
-      <c r="AN2">
-        <v>4.1000102418158102</v>
-      </c>
-      <c r="AO2">
-        <v>4.1853703277642396</v>
-      </c>
-      <c r="AP2">
-        <v>4.2884906644708103</v>
-      </c>
-      <c r="AQ2">
-        <v>4.3970649827300896</v>
-      </c>
-      <c r="AR2">
-        <v>4.4958982162847096</v>
-      </c>
-      <c r="AS2">
-        <v>4.5857362977026002</v>
-      </c>
-      <c r="AT2">
-        <v>4.67518462215667</v>
-      </c>
-      <c r="AU2">
-        <v>4.7689879638182404</v>
-      </c>
-      <c r="AV2">
-        <v>4.8730555961564299</v>
-      </c>
-      <c r="AW2">
-        <v>4.9927289039693701</v>
-      </c>
-      <c r="AX2">
-        <v>5.1121448278765502</v>
-      </c>
-      <c r="AY2">
-        <v>5.2322369830208801</v>
-      </c>
-      <c r="AZ2">
-        <v>5.3700341954743003</v>
-      </c>
-      <c r="BA2">
-        <v>5.5234465990864496</v>
-      </c>
-      <c r="BB2">
-        <v>5.6923198089056903</v>
-      </c>
-      <c r="BC2">
-        <v>5.87638270604472</v>
-      </c>
-      <c r="BD2">
-        <v>6.0747862316613297</v>
-      </c>
-      <c r="BE2">
-        <v>6.2887421821360796</v>
-      </c>
-      <c r="BF2">
-        <v>6.5189166367521603</v>
-      </c>
-      <c r="BG2">
-        <v>6.7609123327097196</v>
-      </c>
-      <c r="BH2">
-        <v>7.0117198518686399</v>
-      </c>
-      <c r="BI2">
-        <v>7.2504889851330399</v>
-      </c>
-      <c r="BJ2">
-        <v>7.5025233717683202</v>
-      </c>
-      <c r="BK2">
         <v>7.7865647095000403</v>
       </c>
     </row>
@@ -1033,72 +682,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
